--- a/results/result7/MS vs MAES.xlsx
+++ b/results/result7/MS vs MAES.xlsx
@@ -405,7 +405,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,10 +422,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -433,157 +527,41 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -782,12 +760,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -893,19 +886,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -914,127 +919,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,17 +1035,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1375,8 +1368,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C32" sqref="C28:C32"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1402,430 +1395,430 @@
     <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>121</v>
       </c>
     </row>
